--- a/Documentação/Pasta1.xlsx
+++ b/Documentação/Pasta1.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3aetim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TCCScrolls\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A838418C-CCEF-4079-9413-537160B36B40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Livros</t>
   </si>
@@ -562,25 +564,106 @@
   </si>
   <si>
     <t>Internet Para Leigos</t>
+  </si>
+  <si>
+    <t>Como Treinar o Seu Dragão</t>
+  </si>
+  <si>
+    <t>como ser um pirata</t>
+  </si>
+  <si>
+    <t>Como Falar Dragonês</t>
+  </si>
+  <si>
+    <t>Como Quebrar a Maldição de Um Dragão</t>
+  </si>
+  <si>
+    <t>Como Mudar Uma História de Dragão</t>
+  </si>
+  <si>
+    <t>Guia do Herói Para Vencer Dragões Mortais</t>
+  </si>
+  <si>
+    <t>Como Navegar Em Uma Tempestade de Dragão</t>
+  </si>
+  <si>
+    <t>Como Partir o Coração de Um Dragão</t>
+  </si>
+  <si>
+    <t>Como Roubar A Espada de Um Dragão</t>
+  </si>
+  <si>
+    <t>Como Pegar A Joia do Dragão</t>
+  </si>
+  <si>
+    <t>Como Trair o Herói de Um Dragão</t>
+  </si>
+  <si>
+    <t>Como Combater A Fúria de Um Dragão</t>
+  </si>
+  <si>
+    <t>Como Treinar o Seu Viking</t>
+  </si>
+  <si>
+    <t>O Senhor dos Anéis - Coleção em 3 Volumes</t>
+  </si>
+  <si>
+    <t>O Senhor dos Anéis III - O Retorno do Rei</t>
+  </si>
+  <si>
+    <t>O Hobbit</t>
+  </si>
+  <si>
+    <t>O Senhor dos Anéis II - As Duas Torres</t>
+  </si>
+  <si>
+    <t>O Senhor dos Anéis I - A Sociedade do Anel</t>
+  </si>
+  <si>
+    <t>O Silmarillion</t>
+  </si>
+  <si>
+    <t>Box – As Crônicas De Gelo e Fogo – Pocket – 5 Volumes</t>
+  </si>
+  <si>
+    <t>A Guerra Dos Tronos - As Crônicas de Gelo e Fogo</t>
+  </si>
+  <si>
+    <t>A Tormenta de Espadas - As Crônicas de Gelo e Fogo</t>
+  </si>
+  <si>
+    <t>A Fúria Dos Reis - As Crônicas de Gelo e Fogo</t>
+  </si>
+  <si>
+    <t>A Dança Dos Dragões - As Crônicas de Gelo e Fogo</t>
+  </si>
+  <si>
+    <t>O Festim Dos Corvos - As Crônicas de Gelo e Fogo</t>
+  </si>
+  <si>
+    <t>Eragon</t>
+  </si>
+  <si>
+    <t>Eldest</t>
+  </si>
+  <si>
+    <t>Brinstrar</t>
+  </si>
+  <si>
+    <t>Herança</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -603,9 +686,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,11 +967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,395 +1551,562 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A186" s="1"/>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" tooltip="Box Harry Potter - Série Completa" display="https://www.saraiva.com.br/box-harry-potter-serie-completa-9032983.html"/>
-    <hyperlink ref="A4" r:id="rId2" tooltip="Harry Potter e A Pedra Filosofal - Capa Dura" display="https://www.saraiva.com.br/harry-potter-e-a-pedra-filosofal-capa-dura-9738750.html"/>
-    <hyperlink ref="A17" r:id="rId3" tooltip="Harry Potter e A Pedra Filosofal - Capa Dura" display="https://www.saraiva.com.br/harry-potter-e-a-pedra-filosofal-capa-dura-9738750.html"/>
-    <hyperlink ref="A31" r:id="rId4" tooltip="O Tempo Desconjuntado" display="https://www.saraiva.com.br/o-tempo-desconjuntado-10147259.html"/>
-    <hyperlink ref="A32" r:id="rId5" tooltip="Espere Agora Pelo Ano Passado" display="https://www.saraiva.com.br/espere-agora-pelo-ano-passado-10287840.html"/>
-    <hyperlink ref="A33" r:id="rId6" tooltip="O Sol Desvelado" display="https://www.saraiva.com.br/o-sol-desvelado-7514116.html"/>
-    <hyperlink ref="A34" r:id="rId7" tooltip="As Cavernas de Aço" display="https://www.saraiva.com.br/as-cavernas-de-aco-5267908.html"/>
-    <hyperlink ref="A35" r:id="rId8" tooltip="Os Robôs da Alvorada" display="https://www.saraiva.com.br/os-robos-da-alvorada-8973928.html"/>
-    <hyperlink ref="A36" r:id="rId9" tooltip="Aniquilação - Trilogia Comando Sul - Vol. 1" display="https://www.saraiva.com.br/aniquilacao-trilogia-comando-sul-vol-1-7791042.html"/>
-    <hyperlink ref="A43" r:id="rId10" tooltip="It - A Coisa" display="https://www.saraiva.com.br/it-a-coisa-7697879.html"/>
-    <hyperlink ref="A44" r:id="rId11" tooltip="A Hora do Lobisomem" display="https://www.saraiva.com.br/a-hora-do-lobisomem-9727600.html"/>
-    <hyperlink ref="A45" r:id="rId12" tooltip="Doutor Sono" display="https://www.saraiva.com.br/doutor-sono-8141048.html"/>
-    <hyperlink ref="A46" r:id="rId13" tooltip="Cujo" display="https://www.saraiva.com.br/cujo-9377508.html"/>
-    <hyperlink ref="A47" r:id="rId14" tooltip="Christine" display="https://www.saraiva.com.br/christine-5412696.html"/>
-    <hyperlink ref="A48" r:id="rId15" tooltip="Sob a Redoma" display="https://www.saraiva.com.br/sob-a-redoma-4238853.html"/>
-    <hyperlink ref="A49" r:id="rId16" tooltip="A Casa Negra" display="https://www.saraiva.com.br/a-casa-negra-5375483.html"/>
-    <hyperlink ref="A50" r:id="rId17" tooltip="Carrie" display="https://www.saraiva.com.br/carrie-4923287.html"/>
-    <hyperlink ref="A51" r:id="rId18" display="https://www.darksidebooks.com.br/dracula-de-bram-stoker-first-edition/"/>
-    <hyperlink ref="A52" r:id="rId19" display="https://www.darksidebooks.com.br/edgar-allan-poe-medo-classico-vol-2/"/>
-    <hyperlink ref="A53" r:id="rId20" display="https://www.darksidebooks.com.br/edgar-allan-poe-medo-classico-vol-2/"/>
-    <hyperlink ref="A55" r:id="rId21" display="https://www.darksidebooks.com.br/hp-lovecraft-medo-classico-vol-1-miskatonic-edition/"/>
-    <hyperlink ref="A56" r:id="rId22" display="https://www.darksidebooks.com.br/labirinto/"/>
-    <hyperlink ref="A57" r:id="rId23" display="https://www.darksidebooks.com.br/donnie-darko/"/>
-    <hyperlink ref="A59" r:id="rId24" display="https://www.darksidebooks.com.br/de-volta-para-o-futuro/"/>
-    <hyperlink ref="A58" r:id="rId25" display="https://www.darksidebooks.com.br/tubarao/"/>
-    <hyperlink ref="A60" r:id="rId26" display="https://www.darksidebooks.com.br/goonies-special-edition/"/>
-    <hyperlink ref="A61" r:id="rId27" display="https://www.darksidebooks.com.br/psicose/"/>
-    <hyperlink ref="A64" r:id="rId28" tooltip="Star Wars - O Arquivo Rebelde" display="https://www.saraiva.com.br/star-wars-o-arquivo-rebelde-10219057.html"/>
-    <hyperlink ref="A76" r:id="rId29" tooltip="Iracema" display="https://www.saraiva.com.br/iracema-9341630.html"/>
-    <hyperlink ref="A77" r:id="rId30" display="http://jornal.usp.br/cultura/memorias-postumas-de-bras-cubas-observa-a-condicao-humana/"/>
-    <hyperlink ref="A78" r:id="rId31" display="http://jornal.usp.br/cultura/livro-indicado-pela-fuvest-o-cortico-retrata-o-brasil-de-hoje/"/>
-    <hyperlink ref="A79" r:id="rId32" display="http://jornal.usp.br/cultura/a-cidade-e-as-serras-questiona-os-valores-da-sociedade-urbana/"/>
-    <hyperlink ref="A80" r:id="rId33" display="http://jornal.usp.br/cultura/vidas-secas-denuncia-o-descaso-social-e-a-exploracao-humana/"/>
-    <hyperlink ref="A81" r:id="rId34" display="http://jornal.usp.br/cultura/minha-vida-de-menina-e-o-novo-livro-exigido-pela-fuvest/"/>
-    <hyperlink ref="A82" r:id="rId35" display="http://jornal.usp.br/cultura/livro-indicado-pela-fuvest-claro-enigma-dialoga-com-dante-e-camoes/"/>
-    <hyperlink ref="A83" r:id="rId36" display="http://jornal.usp.br/cultura/sagarana-livro-exigido-pela-fuvest-aponta-os-caminhos-de-rosa/"/>
-    <hyperlink ref="A84" r:id="rId37" display="http://jornal.usp.br/cultura/em-mayombe-selva-e-lugar-para-o-surgimento-do-homem-novo-e-da-angola-independente/"/>
-    <hyperlink ref="A85" r:id="rId38" tooltip="Capitães da Areia" display="https://www.saraiva.com.br/capitaes-da-areia-2230223.html"/>
-    <hyperlink ref="A91" r:id="rId39" tooltip="A Metamorfose" display="https://www.saraiva.com.br/a-metamorfose-8689573.html"/>
-    <hyperlink ref="A101" r:id="rId40" tooltip="Frankenstein - Edição Comentada - Col...." display="https://www.saraiva.com.br/frankenstein-edicao-comentada-col-classicos-zahar-9431012.html"/>
-    <hyperlink ref="A102" r:id="rId41" tooltip="O Diário de Anne Frank - Edição Definitiva" display="https://www.saraiva.com.br/o-diario-de-anne-frank-edicao-definitiva-347296.html"/>
-    <hyperlink ref="A108" r:id="rId42" tooltip="Box - Diário De Um Banana - 10 Volumes" display="https://www.saraiva.com.br/box-diario-de-um-banana-10-volumes-9473021.html"/>
-    <hyperlink ref="A129" r:id="rId43" tooltip="Xanathar's Guide to Everything" display="https://www.amazon.com.br/Xanathars-Guide-Everything-Wizards-Team/dp/0786966114/ref=sr_1_1?s=books&amp;ie=UTF8&amp;qid=1542202575&amp;sr=1-1&amp;keywords=xanathar%27s+guide+to+everything"/>
+    <hyperlink ref="A3" r:id="rId1" tooltip="Box Harry Potter - Série Completa" display="https://www.saraiva.com.br/box-harry-potter-serie-completa-9032983.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" tooltip="Harry Potter e A Pedra Filosofal - Capa Dura" display="https://www.saraiva.com.br/harry-potter-e-a-pedra-filosofal-capa-dura-9738750.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A17" r:id="rId3" tooltip="Harry Potter e A Pedra Filosofal - Capa Dura" display="https://www.saraiva.com.br/harry-potter-e-a-pedra-filosofal-capa-dura-9738750.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A31" r:id="rId4" tooltip="O Tempo Desconjuntado" display="https://www.saraiva.com.br/o-tempo-desconjuntado-10147259.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A32" r:id="rId5" tooltip="Espere Agora Pelo Ano Passado" display="https://www.saraiva.com.br/espere-agora-pelo-ano-passado-10287840.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A33" r:id="rId6" tooltip="O Sol Desvelado" display="https://www.saraiva.com.br/o-sol-desvelado-7514116.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A34" r:id="rId7" tooltip="As Cavernas de Aço" display="https://www.saraiva.com.br/as-cavernas-de-aco-5267908.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A35" r:id="rId8" tooltip="Os Robôs da Alvorada" display="https://www.saraiva.com.br/os-robos-da-alvorada-8973928.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A36" r:id="rId9" tooltip="Aniquilação - Trilogia Comando Sul - Vol. 1" display="https://www.saraiva.com.br/aniquilacao-trilogia-comando-sul-vol-1-7791042.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A43" r:id="rId10" tooltip="It - A Coisa" display="https://www.saraiva.com.br/it-a-coisa-7697879.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A44" r:id="rId11" tooltip="A Hora do Lobisomem" display="https://www.saraiva.com.br/a-hora-do-lobisomem-9727600.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A45" r:id="rId12" tooltip="Doutor Sono" display="https://www.saraiva.com.br/doutor-sono-8141048.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A46" r:id="rId13" tooltip="Cujo" display="https://www.saraiva.com.br/cujo-9377508.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A47" r:id="rId14" tooltip="Christine" display="https://www.saraiva.com.br/christine-5412696.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A48" r:id="rId15" tooltip="Sob a Redoma" display="https://www.saraiva.com.br/sob-a-redoma-4238853.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A49" r:id="rId16" tooltip="A Casa Negra" display="https://www.saraiva.com.br/a-casa-negra-5375483.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A50" r:id="rId17" tooltip="Carrie" display="https://www.saraiva.com.br/carrie-4923287.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A51" r:id="rId18" display="https://www.darksidebooks.com.br/dracula-de-bram-stoker-first-edition/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A52" r:id="rId19" display="https://www.darksidebooks.com.br/edgar-allan-poe-medo-classico-vol-2/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A53" r:id="rId20" display="https://www.darksidebooks.com.br/edgar-allan-poe-medo-classico-vol-2/" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A55" r:id="rId21" display="https://www.darksidebooks.com.br/hp-lovecraft-medo-classico-vol-1-miskatonic-edition/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A56" r:id="rId22" display="https://www.darksidebooks.com.br/labirinto/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A57" r:id="rId23" display="https://www.darksidebooks.com.br/donnie-darko/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A59" r:id="rId24" display="https://www.darksidebooks.com.br/de-volta-para-o-futuro/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A58" r:id="rId25" display="https://www.darksidebooks.com.br/tubarao/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A60" r:id="rId26" display="https://www.darksidebooks.com.br/goonies-special-edition/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A61" r:id="rId27" display="https://www.darksidebooks.com.br/psicose/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A64" r:id="rId28" tooltip="Star Wars - O Arquivo Rebelde" display="https://www.saraiva.com.br/star-wars-o-arquivo-rebelde-10219057.html" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A76" r:id="rId29" tooltip="Iracema" display="https://www.saraiva.com.br/iracema-9341630.html" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A77" r:id="rId30" display="http://jornal.usp.br/cultura/memorias-postumas-de-bras-cubas-observa-a-condicao-humana/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A78" r:id="rId31" display="http://jornal.usp.br/cultura/livro-indicado-pela-fuvest-o-cortico-retrata-o-brasil-de-hoje/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A79" r:id="rId32" display="http://jornal.usp.br/cultura/a-cidade-e-as-serras-questiona-os-valores-da-sociedade-urbana/" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A80" r:id="rId33" display="http://jornal.usp.br/cultura/vidas-secas-denuncia-o-descaso-social-e-a-exploracao-humana/" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A81" r:id="rId34" display="http://jornal.usp.br/cultura/minha-vida-de-menina-e-o-novo-livro-exigido-pela-fuvest/" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A82" r:id="rId35" display="http://jornal.usp.br/cultura/livro-indicado-pela-fuvest-claro-enigma-dialoga-com-dante-e-camoes/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A83" r:id="rId36" display="http://jornal.usp.br/cultura/sagarana-livro-exigido-pela-fuvest-aponta-os-caminhos-de-rosa/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A84" r:id="rId37" display="http://jornal.usp.br/cultura/em-mayombe-selva-e-lugar-para-o-surgimento-do-homem-novo-e-da-angola-independente/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A85" r:id="rId38" tooltip="Capitães da Areia" display="https://www.saraiva.com.br/capitaes-da-areia-2230223.html" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A91" r:id="rId39" tooltip="A Metamorfose" display="https://www.saraiva.com.br/a-metamorfose-8689573.html" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A101" r:id="rId40" tooltip="Frankenstein - Edição Comentada - Col...." display="https://www.saraiva.com.br/frankenstein-edicao-comentada-col-classicos-zahar-9431012.html" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A102" r:id="rId41" tooltip="O Diário de Anne Frank - Edição Definitiva" display="https://www.saraiva.com.br/o-diario-de-anne-frank-edicao-definitiva-347296.html" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A108" r:id="rId42" tooltip="Box - Diário De Um Banana - 10 Volumes" display="https://www.saraiva.com.br/box-diario-de-um-banana-10-volumes-9473021.html" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A143" r:id="rId43" tooltip="Xanathar's Guide to Everything" display="https://www.amazon.com.br/Xanathars-Guide-Everything-Wizards-Team/dp/0786966114/ref=sr_1_1?s=books&amp;ie=UTF8&amp;qid=1542202575&amp;sr=1-1&amp;keywords=xanathar%27s+guide+to+everything" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A129" r:id="rId44" tooltip="Como Partir o Coração de Um Dragão" display="https://www.saraiva.com.br/como-partir-o-coracao-de-um-dragao-4086449.html" xr:uid="{38AE3895-492F-485C-B87F-40CB10123571}"/>
+    <hyperlink ref="A131" r:id="rId45" tooltip="Como Pegar A Joia do Dragão - Série Como..." display="https://www.saraiva.com.br/como-pegar-a-joia-do-dragao-serie-como-treinar-seu-dragao-5499902.html" xr:uid="{955C6AB0-AB12-4805-9281-116CA41A90A1}"/>
+    <hyperlink ref="A132" r:id="rId46" tooltip="Como Trair o Herói de Um Dragão - Vol. 11" display="https://www.saraiva.com.br/como-trair-o-heroi-de-um-dragao-vol-11-7420664.html" xr:uid="{6C9D3D8E-E900-425B-B5A0-AE6941B6D037}"/>
+    <hyperlink ref="A200" r:id="rId47" tooltip="O Senhor dos Anéis - Coleção em 3 Volumes" display="https://www.saraiva.com.br/o-senhor-dos-aneis-colecao-em-3-volumes-101872.html" xr:uid="{9E868E34-9634-42B0-8784-C27A13BD4AD4}"/>
+    <hyperlink ref="A201" r:id="rId48" tooltip="O Senhor dos Anéis III - O Retorno do Rei" display="https://www.saraiva.com.br/o-senhor-dos-aneis-iii-o-retorno-do-rei-452780.html" xr:uid="{D3A2D4D2-52CF-4B15-B25A-E79A64F35E89}"/>
+    <hyperlink ref="A202" r:id="rId49" display="https://www.saraiva.com.br/o-hobbit-7-ed-2013-5246366.html?mi=VITRINECHAORDIC_ultimatebuy_product_5246366" xr:uid="{3F76C0AF-D08E-4D6C-8A1D-D116BC1B91E0}"/>
+    <hyperlink ref="A203" r:id="rId50" tooltip="O Senhor dos Anéis II - As Duas Torres" display="https://www.saraiva.com.br/o-senhor-dos-aneis-ii-as-duas-torres-452779.html" xr:uid="{795A4FB7-DCF6-4470-B09D-90BA624BBD96}"/>
+    <hyperlink ref="A204" r:id="rId51" tooltip="O Senhor dos Anéis I - A Sociedade do Anel" display="https://www.saraiva.com.br/o-senhor-dos-aneis-i-a-sociedade-do-anel-452744.html" xr:uid="{F1A9D6AB-DE56-45BE-A93C-6344B1C19943}"/>
+    <hyperlink ref="A205" r:id="rId52" tooltip="O Silmarillion - 5ª Ed. 2011" display="https://www.saraiva.com.br/o-silmarillion-5-ed-2011-4532419.html" xr:uid="{2270673A-D206-47A5-8C06-513F3EBE0190}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30C0D86-0CA4-4B8B-97A2-DDA5F419C5EB}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
